--- a/data/templates/es/plantilla.xlsx
+++ b/data/templates/es/plantilla.xlsx
@@ -13,61 +13,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>INDIVIDUAL</t>
+    <t>INDIVIDUO</t>
   </si>
   <si>
-    <t>PARENTS</t>
+    <t>PADRES</t>
   </si>
   <si>
-    <t>MARRIED TO</t>
+    <t>CASADO CON</t>
   </si>
   <si>
     <t>ID *</t>
   </si>
   <si>
-    <t>gender *</t>
+    <t>genero *</t>
   </si>
   <si>
-    <t>name</t>
+    <t>nombre</t>
   </si>
   <si>
-    <t>middle name</t>
+    <t>segundo nombre</t>
   </si>
   <si>
-    <t>surname1</t>
+    <t>apellido1</t>
   </si>
   <si>
-    <t>surname2</t>
+    <t>apellido2</t>
   </si>
   <si>
-    <t>nickname</t>
+    <t>alias</t>
   </si>
   <si>
-    <t>date of birth</t>
+    <t>fecha de nacimiento</t>
   </si>
   <si>
-    <t>birth place</t>
+    <t>lugar de nacimiento</t>
   </si>
   <si>
-    <t>decease date</t>
+    <t>fecha de defuncion</t>
   </si>
   <si>
-    <t>decease place</t>
+    <t>lugar de defuncion</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>notas</t>
   </si>
   <si>
-    <t>father ID</t>
+    <t>ID del padre</t>
   </si>
   <si>
-    <t>mother ID</t>
+    <t>ID de la madre</t>
   </si>
   <si>
-    <t>husband ID</t>
+    <t>ID del marido</t>
   </si>
   <si>
-    <t>wife ID</t>
+    <t>ID de la mujer</t>
   </si>
 </sst>
 </file>
@@ -423,9 +423,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.75"/>
-    <col customWidth="1" min="3" max="4" width="13.0"/>
-    <col customWidth="1" min="12" max="12" width="33.38"/>
+    <col customWidth="1" min="1" max="1" width="9.75"/>
+    <col customWidth="1" min="2" max="2" width="7.75"/>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
+    <col customWidth="1" min="8" max="8" width="16.0"/>
+    <col customWidth="1" min="9" max="9" width="15.63"/>
+    <col customWidth="1" min="10" max="10" width="15.25"/>
+    <col customWidth="1" min="11" max="11" width="14.88"/>
+    <col customWidth="1" min="12" max="12" width="25.13"/>
+    <col customWidth="1" min="14" max="14" width="12.88"/>
   </cols>
   <sheetData>
     <row r="1">
